--- a/Non Web Content/DB Tables & Fields updated.xlsx
+++ b/Non Web Content/DB Tables & Fields updated.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kavita\git\WELLS\wellsIBSGroup8Cohort3\Non Web Content\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F75AC44-2EC1-4C09-B45A-03D05A09D1B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7980" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tables" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="84">
   <si>
     <t>Table</t>
   </si>
@@ -96,9 +102,6 @@
   </si>
   <si>
     <t>Relationship with Account holder</t>
-  </si>
-  <si>
-    <t>Account/s [Savings Account, RD Account,FD Account]</t>
   </si>
   <si>
     <t>Transaction Value [0.00]</t>
@@ -298,11 +301,35 @@
 VALUES ('5678 1234 5678 1234', 'Debit', 'Active', '10/10/2020', '10/10/2020', 'Debit' , '1000.00' , 'PRB00004321' , 'None');
 </t>
   </si>
+  <si>
+    <t>Numeric</t>
+  </si>
+  <si>
+    <t>Account Management</t>
+  </si>
+  <si>
+    <t>Account Type [Savings Account, RD Account,FD Account]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREATE :
+CREATE TABLE table_Accounts(Account_Number varchar(10), Customer_ID varchar 10, Account_Type string(10), Balance numeric(10), Operation varchar(20));
+INSERT:
+INSERT INTO Customers (Account_Number, Customer_ID,Account_Type, Balance,Operation  )  VALUES ('1234 5643 12','1234 5678 1234 5678', 'Savings', '1234.12', 'Credit');
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer ID VARCHAR 16
+Account Number VARCHAR 10
+Account Type SAVINGS RD,FD- STRING 10
+Balance NUMERIC 10
+Operation Credit, Debit -VARCHAR 20
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -418,9 +445,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -433,6 +457,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,6 +469,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -704,35 +734,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG33"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AJ2" sqref="AJ2"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="4" width="9" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="9.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="27.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="43.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="9.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="27.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.88671875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="43.33203125" style="1" customWidth="1"/>
     <col min="15" max="15" width="12" style="1" customWidth="1"/>
-    <col min="16" max="21" width="9.140625" style="1"/>
-    <col min="22" max="22" width="11.42578125" style="1" customWidth="1"/>
+    <col min="16" max="21" width="9.109375" style="1"/>
+    <col min="22" max="22" width="11.44140625" style="1" customWidth="1"/>
     <col min="23" max="24" width="19" style="1" customWidth="1"/>
-    <col min="25" max="26" width="9.140625" style="1"/>
-    <col min="27" max="28" width="8.42578125" style="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="25" max="26" width="9.109375" style="1"/>
+    <col min="27" max="28" width="8.44140625" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="25.5">
+    <row r="1" spans="1:33" ht="27.6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -833,7 +863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="38.25">
+    <row r="2" spans="1:33" ht="41.4">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -864,7 +894,12 @@
       <c r="N2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="4"/>
+      <c r="O2" s="1">
+        <v>16</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="Q2" s="3" t="s">
         <v>11</v>
       </c>
@@ -903,11 +938,16 @@
       <c r="N3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="5"/>
-      <c r="Q3" s="8" t="s">
+      <c r="O3" s="1">
+        <v>12</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="R3" s="8"/>
+      <c r="R3" s="12"/>
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -915,7 +955,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="25.5">
+    <row r="4" spans="1:33" ht="27.6">
       <c r="B4" s="1" t="s">
         <v>24</v>
       </c>
@@ -932,16 +972,21 @@
         <v>26</v>
       </c>
       <c r="N4" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="6"/>
-      <c r="W4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:33" ht="27.6">
+      <c r="B5" s="1" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" ht="25.5">
-      <c r="B5" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="C5" s="1">
         <v>10</v>
@@ -950,19 +995,24 @@
         <v>18</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="N5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O5" s="6"/>
+      <c r="O5" s="1">
+        <v>10</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="6" spans="1:33">
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1">
         <v>50</v>
@@ -971,19 +1021,24 @@
         <v>18</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="N6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="N6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="O6" s="6"/>
+      <c r="O6" s="1">
+        <v>20</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" spans="1:33">
       <c r="B7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="1">
         <v>11</v>
@@ -992,26 +1047,26 @@
         <v>6</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:33">
       <c r="F8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:33">
       <c r="F9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:33">
@@ -1021,120 +1076,120 @@
     </row>
     <row r="11" spans="1:33">
       <c r="F11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:33">
       <c r="F12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:33">
       <c r="F13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:33">
       <c r="F14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:33">
       <c r="F15" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:33">
       <c r="F16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="6:7">
       <c r="F17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="6:7">
       <c r="F18" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="6:7">
       <c r="F19" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="6:7">
       <c r="F20" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="6:7">
       <c r="F21" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="6:7">
       <c r="F22" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="6:7">
       <c r="F23" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="6:7">
       <c r="F24" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="6:7">
       <c r="F25" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="6:7" ht="69">
+      <c r="F26" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="26" spans="6:7" ht="63.75">
-      <c r="F26" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="27" spans="6:7">
       <c r="F27" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="6:7">
       <c r="F28" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="6:7">
       <c r="F29" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="6:7">
       <c r="F30" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="6:7">
       <c r="F31" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="6:7">
       <c r="F32" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="6:6">
       <c r="F33" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1147,78 +1202,104 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="10"/>
-    <col min="2" max="2" width="27" style="10" customWidth="1"/>
-    <col min="3" max="3" width="55.7109375" style="10" customWidth="1"/>
-    <col min="4" max="4" width="29" style="10" customWidth="1"/>
-    <col min="5" max="5" width="53.85546875" style="10" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="1" width="9.109375" style="9"/>
+    <col min="2" max="2" width="27" style="9" customWidth="1"/>
+    <col min="3" max="3" width="55.6640625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="29" style="9" customWidth="1"/>
+    <col min="5" max="5" width="53.88671875" style="9" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5">
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="9" t="s">
+    </row>
+    <row r="2" spans="2:5" ht="216">
+      <c r="B2" s="10" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="2:5" ht="240">
-      <c r="B2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" s="11" t="s">
+    </row>
+    <row r="3" spans="2:5" ht="244.8">
+      <c r="B3" s="10" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" ht="270">
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="D3" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" s="11" t="s">
+    </row>
+    <row r="4" spans="2:5" ht="216">
+      <c r="B4" s="10" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" ht="255">
-      <c r="B4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="D4" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>79</v>
-      </c>
+    </row>
+    <row r="5" spans="2:5" ht="158.4">
+      <c r="B5" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="C9" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
